--- a/biology/Zoologie/Hypena_proboscidalis/Hypena_proboscidalis.xlsx
+++ b/biology/Zoologie/Hypena_proboscidalis/Hypena_proboscidalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypena proboscidalis (la Noctuelle à museau) est une espèce de lépidoptères (papillons) de la famille des Erebidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce a été décrite par Carl von Linné en 1758.
 Longtemps placée dans la famille des Noctuidae, elle fait aujourd'hui partie des Erebidae.
@@ -543,11 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Noctuelle à museau, de couleur brun clair à brun foncé, beaucoup plus frêle que les autres noctuelles, doit son nom à ses longs palpes labiaux.
-Chenille
-Verte, grêle, parsemée de verrues éparses; se nourrit d'orties.
 </t>
         </is>
       </c>
@@ -573,10 +587,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Verte, grêle, parsemée de verrues éparses; se nourrit d'orties.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hypena_proboscidalis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypena_proboscidalis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le papillon fréquente les haies, les lieux incultes de juin à septembre.
 </t>
